--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_291.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_291.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,322 +488,329 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(8.3, 12.96)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:02:00.400000', '0:02:03.780000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:27.600000', '0:00:54.260000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.92, 5.28)]</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min'], ['A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6), (28.02, 30.1)]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(12.26, 25.04), (65.26, 71.04)]</t>
+          <t>[('0:00:13.660000', '0:00:17.900000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:03.440000', '0:00:07.080000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(5.06, 123.26)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(6.04, 110.76)]</t>
+          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[('0:00:12.780000', '0:00:16.740000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:36.180000', '0:00:37.980000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (65.9, 72.44)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(14.78, 19.02), (32.98, 35.26)]</t>
+          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:06.200000', '0:00:16.360000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4083333333333333</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'G/2', 'D/5', 'A', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4051724137931034</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'D', 'A', 'E', 'A', 'E']]</t>
+          <t>[['G', 'C', 'G', 'C', 'G', 'C', 'G', 'C', 'G'], ['C', 'G', 'C', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(47.804648, 59.368185)]</t>
+          <t>[['E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E'], ['A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(27.452358, 39.410634)]</t>
+          <t>[('0:00:28.210155', '0:00:42.831033'), ('0:00:26.391305', '0:00:41.205636')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>[('0:00:08.413696', '0:00:17.134530'), ('0:00:09.156734', '0:00:18.293786')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -806,399 +818,362 @@
           <t>schubert-winterreise_36</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(113.14, 114.88)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
+          <t>[('0:00:47.300000', '0:00:50.040000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:21.020000', '0:00:31.860000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(14.52, 59.64)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(13.42, 53.02)]</t>
+          <t>[('0:00:12.400000', '0:00:16.560000'), ('0:00:21.880000', '0:00:24.860000'), ('0:00:17.200000', '0:00:18.680000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:13.800000', '0:00:18.440000'), ('0:00:24.260000', '0:00:27.200000'), ('0:00:19.120000', '0:00:20.760000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1028638223261251</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.19375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G', 'D']]</t>
+          <t>[['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(44.310045, 52.17)]</t>
+          <t>[['D:7', 'G:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(17.014988, 21.856349)]</t>
+          <t>[('0:00:46.060000', '0:00:53.660000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>[('0:01:00.854263', '0:01:06.566371')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_205</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.05207296849087894</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['G', 'C', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.36, 5.6)]</t>
+          <t>[['A/3', 'D', 'F#', 'B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:44.448575', '0:00:52.798639')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:45.772902', '0:00:52.634399')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'D:min/A', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (28.14, 36.1)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7), (1.64, 5.02)]</t>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(5.20815, 11.03585)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(18.26, 24.82)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:00:48.320000', '0:01:46.760000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:47.860000', '0:01:35.840000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(96.26, 107.18)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(39.8, 48.28)]</t>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.36, 5.0)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(37.96, 44.8)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
